--- a/TransactionLogs.xlsx
+++ b/TransactionLogs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Griffin RPA Demo (GRD)</t>
   </si>
@@ -93,6 +93,63 @@
   </si>
   <si>
     <t>16-11-2021T12:14:19</t>
+  </si>
+  <si>
+    <t>18-11-2021T01:56:45</t>
+  </si>
+  <si>
+    <t>GRD-1829 - About us page</t>
+  </si>
+  <si>
+    <t>18-11-2021T01:57:38</t>
+  </si>
+  <si>
+    <t>18-11-2021T03:54:43</t>
+  </si>
+  <si>
+    <t>GRD-1856 - About us page</t>
+  </si>
+  <si>
+    <t>18-11-2021T03:55:38</t>
+  </si>
+  <si>
+    <t>GRD-1857 - Login</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:20:26</t>
+  </si>
+  <si>
+    <t>GRD-1878 - About us page</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:21:19</t>
+  </si>
+  <si>
+    <t>GRD-1879 - Login</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:25:38</t>
+  </si>
+  <si>
+    <t>GRD-1880 - About us page</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:26:39</t>
+  </si>
+  <si>
+    <t>GRD-1881 - Login</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:32:25</t>
+  </si>
+  <si>
+    <t>GRD-1882 - About us page</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:33:17</t>
+  </si>
+  <si>
+    <t>GRD-1883 - Login</t>
   </si>
 </sst>
 </file>
@@ -411,9 +468,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -567,6 +624,143 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TransactionLogs.xlsx
+++ b/TransactionLogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2364" windowHeight="96"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="96"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="132">
   <si>
     <t>Griffin RPA Demo (GRD)</t>
   </si>
@@ -150,6 +150,276 @@
   </si>
   <si>
     <t>GRD-1883 - Login</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:39:16</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:44:32</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:57:37</t>
+  </si>
+  <si>
+    <t>GRD-1884 - About us page</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:58:27</t>
+  </si>
+  <si>
+    <t>GRD-1885 - Login</t>
+  </si>
+  <si>
+    <t>19-11-2021T10:59:45</t>
+  </si>
+  <si>
+    <t>19-11-2021T11:32:47</t>
+  </si>
+  <si>
+    <t>GRD-1889 - About us page</t>
+  </si>
+  <si>
+    <t>19-11-2021T11:33:40</t>
+  </si>
+  <si>
+    <t>GRD-1890 - Login</t>
+  </si>
+  <si>
+    <t>19-11-2021T11:35:02</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:01:01</t>
+  </si>
+  <si>
+    <t>GRD-1950 - About us page</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:01:56</t>
+  </si>
+  <si>
+    <t>GRD-1953 - Create login Form</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:02:49</t>
+  </si>
+  <si>
+    <t>GRD-1956 - Login Access Denied</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:13:42</t>
+  </si>
+  <si>
+    <t>GRD-1960 - About us page</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:14:33</t>
+  </si>
+  <si>
+    <t>GRD-1961 - Create login Form</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:15:24</t>
+  </si>
+  <si>
+    <t>GRD-1962 - Login Access Denied</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:16:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRD-1963 - Login </t>
+  </si>
+  <si>
+    <t>29-11-2021T12:17:05</t>
+  </si>
+  <si>
+    <t>GRD-1964 - eLearn more page</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:17:55</t>
+  </si>
+  <si>
+    <t>GRD-1965 - Create a Menu dropdown</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:18:47</t>
+  </si>
+  <si>
+    <t>GRD-1966 - Links doesn’t open to new tab</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:19:37</t>
+  </si>
+  <si>
+    <t>GRD-1967 - Booking page</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:20:28</t>
+  </si>
+  <si>
+    <t>GRD-1968 - Contact us page</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:21:18</t>
+  </si>
+  <si>
+    <t>GRD-1969 - Create a survey form</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:22:09</t>
+  </si>
+  <si>
+    <t>GRD-1970 - User can't book appointment</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:22:59</t>
+  </si>
+  <si>
+    <t>GRD-1971 - veLanding Dashboard</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:23:50</t>
+  </si>
+  <si>
+    <t>GRD-1972 - Survey form</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:24:40</t>
+  </si>
+  <si>
+    <t>GRD-1973 - Create a footer in the landing page</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:25:31</t>
+  </si>
+  <si>
+    <t>GRD-1974 - Admin unable to login</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:26:22</t>
+  </si>
+  <si>
+    <t>GRD-1975 - Our services page</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:27:12</t>
+  </si>
+  <si>
+    <t>GRD-1977 - Happening page</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:28:03</t>
+  </si>
+  <si>
+    <t>GRD-1978 - Allow users to signup with an outlook account</t>
+  </si>
+  <si>
+    <t>29-11-2021T12:28:53</t>
+  </si>
+  <si>
+    <t>GRD-1980 - keHome page</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:03:29</t>
+  </si>
+  <si>
+    <t>GRD-2001 - About us page</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:04:24</t>
+  </si>
+  <si>
+    <t>GRD-2002 - Create login Form</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:05:43</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:06:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRD-2003 - Login </t>
+  </si>
+  <si>
+    <t>29-11-2021T01:07:22</t>
+  </si>
+  <si>
+    <t>GRD-2004 - Learn more page</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:08:14</t>
+  </si>
+  <si>
+    <t>GRD-2005 - Create a Menu dropdown</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:09:35</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:10:08</t>
+  </si>
+  <si>
+    <t>GRD-2006 - Booking page</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:11:00</t>
+  </si>
+  <si>
+    <t>GRD-2007 - Contact us page</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:12:21</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:12:40</t>
+  </si>
+  <si>
+    <t>GRD-2008 - User can't book appointment</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:13:51</t>
+  </si>
+  <si>
+    <t>GRD-2009 - Landing Dashboard</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:14:42</t>
+  </si>
+  <si>
+    <t>GRD-2010 - Survey form</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:16:04</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:16:58</t>
+  </si>
+  <si>
+    <t>GRD-2011 - Create a footer in the landing page</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:18:17</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:19:32</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:20:27</t>
+  </si>
+  <si>
+    <t>GRD-2012 - Allow users to signup with an outlook account</t>
+  </si>
+  <si>
+    <t>29-11-2021T01:21:18</t>
+  </si>
+  <si>
+    <t>GRD-2013 - IkeHome page</t>
   </si>
 </sst>
 </file>
@@ -468,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -761,6 +1031,674 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
